--- a/data/income_statement/2digits/size/63_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/63_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>63-Information service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>63-Information service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,275 +841,310 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>140233.04519</v>
+        <v>147542.68217</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>295587.45017</v>
+        <v>301872.5515</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>236495.76478</v>
+        <v>245628.5243</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>237537.13961</v>
+        <v>253588.23559</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>363771.56483</v>
+        <v>400394.8630299999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>427701.4660599999</v>
+        <v>440373.46526</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>493074.92393</v>
+        <v>503099.60322</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>439491.51936</v>
+        <v>446689.86865</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>645918.24736</v>
+        <v>630418.2147100001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1696762.4942</v>
+        <v>1707567.7678</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1445924.74302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1483097.75406</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2233405.137</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>129326.5127</v>
+        <v>136122.91379</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>277489.83146</v>
+        <v>282769.56007</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>204403.70907</v>
+        <v>213585.78632</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>194485.66982</v>
+        <v>210548.42797</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>307254.97681</v>
+        <v>338100.74999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>340436.81971</v>
+        <v>350482.58147</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>390786.9415</v>
+        <v>392654.9078200001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>331759.74026</v>
+        <v>334369.61137</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>486205.87724</v>
+        <v>469837.73389</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1229460.67581</v>
+        <v>1241833.23527</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1135625.62306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1174606.96219</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1805154.312</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5357.839690000001</v>
+        <v>6154.417100000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>14006.68335</v>
+        <v>14944.7339</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>28592.2461</v>
+        <v>28556.3943</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>37477.11794</v>
+        <v>37473.91794</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>47697.19108999999</v>
+        <v>52865.9257</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>69634.66839000001</v>
+        <v>71454.10279999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>75443.62778</v>
+        <v>83046.00000999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>84296.03946000001</v>
+        <v>88639.84514</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>110870.39976</v>
+        <v>115879.66616</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>444478.44435</v>
+        <v>444472.08798</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>294326.10111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>291534.55482</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>396956.701</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5548.6928</v>
+        <v>5265.351279999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4090.93536</v>
+        <v>4158.25753</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3499.80961</v>
+        <v>3486.343679999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5574.35185</v>
+        <v>5565.889679999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>8819.396929999999</v>
+        <v>9428.18734</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>17629.97796</v>
+        <v>18436.78099</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>26844.35465</v>
+        <v>27398.69539</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>23435.73964</v>
+        <v>23680.41214</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>48841.97036</v>
+        <v>44700.81466</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>22823.37404</v>
+        <v>21262.44455</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>15973.01885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16956.23705</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>31294.124</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6508.51484</v>
+        <v>6955.17375</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>25023.29566</v>
+        <v>23825.6949</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>14387.91966</v>
+        <v>14136.11909</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>9348.515530000001</v>
+        <v>9379.740510000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>12076.68411</v>
+        <v>24484.70403</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>16926.98459</v>
+        <v>21389.66638</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8971.33908</v>
+        <v>11029.00778</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7012.260310000001</v>
+        <v>9521.501890000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>12136.72649</v>
+        <v>15430.16311</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>40154.56556</v>
+        <v>40127.06522</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>56224.55183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>56111.78979</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>69317.451</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>787.69956</v>
+        <v>1033.57277</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9578.368990000001</v>
+        <v>8148.90523</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1463.41477</v>
+        <v>1317.94447</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1608.0194</v>
+        <v>1599.10951</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>5741.409390000001</v>
+        <v>18071.50851</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>9406.22284</v>
+        <v>13866.65801</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8266.383620000001</v>
+        <v>10294.26599</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5633.689490000001</v>
+        <v>8120.76804</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5494.44238</v>
+        <v>8773.19586</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>26966.31934</v>
+        <v>26938.90119</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>50791.25770999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>50708.83364</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>62060.527</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5720.815279999999</v>
+        <v>5921.60098</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>15369.02063</v>
+        <v>15633.65969</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>12859.90845</v>
+        <v>12810.90845</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>7740.49613</v>
+        <v>7780.631</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6335.274719999999</v>
+        <v>6413.195519999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>7520.76175</v>
+        <v>7523.00837</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>704.95546</v>
+        <v>734.74179</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1378.57082</v>
+        <v>1400.73385</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6631.58006</v>
+        <v>6646.2632</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>13032.70218</v>
@@ -1216,20 +1152,25 @@
       <c r="M11" s="48" t="n">
         <v>5402.956149999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>7256.886</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>75.90603999999999</v>
+        <v>43.12998</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>64.59644</v>
+        <v>7.26617</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>0</v>
@@ -1250,94 +1191,109 @@
         <v>10.70405</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>155.54404</v>
+        <v>155.46185</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>30.33797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>133724.53035</v>
+        <v>140587.50842</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>270564.15451</v>
+        <v>278046.8566</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>222107.84512</v>
+        <v>231492.40521</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>228188.62408</v>
+        <v>244208.49508</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>351694.88072</v>
+        <v>375910.159</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>410774.4814700001</v>
+        <v>418983.79888</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>484103.58485</v>
+        <v>492070.59544</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>432479.25905</v>
+        <v>437168.36676</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>633781.52087</v>
+        <v>614988.0516</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1656607.92864</v>
+        <v>1667440.70258</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1389700.19119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1426985.96427</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2164087.686</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>64552.83793</v>
+        <v>65670.89422999999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>166148.91864</v>
+        <v>165706.6551</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>147921.4901</v>
+        <v>138411.28912</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>131343.61665</v>
+        <v>127496.66188</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>221079.61842</v>
+        <v>244653.23342</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>238624.82101</v>
+        <v>248368.23699</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>270070.84412</v>
+        <v>284876.99098</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>254298.59843</v>
+        <v>253308.8302</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>298005.51385</v>
+        <v>301004.55235</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1029950.07174</v>
+        <v>1049130.78962</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>880893.8563699999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>882479.81388</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1338774.491</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1358,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3800.48184</v>
+        <v>27.57</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3787.03184</v>
+        <v>1353.07845</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6512.14778</v>
@@ -1370,91 +1326,106 @@
         <v>27853.35861</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>33487.73622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>33170.33616</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>19784.876</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2266.54381</v>
+        <v>2424.38782</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>4865.71979</v>
+        <v>2697.4254</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4548.09861</v>
+        <v>1808.27724</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4575.53083</v>
+        <v>6063.04835</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>13034.46736</v>
+        <v>13264.05122</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>18238.02781</v>
+        <v>15122.25934</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>18529.05149</v>
+        <v>23496.80617</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>50684.32605</v>
+        <v>50136.63988</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>50859.7679</v>
+        <v>38819.5462</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>164011.92971</v>
+        <v>186023.02572</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>107941.28331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>119477.48434</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>362286.616</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>62286.29412</v>
+        <v>63246.50640999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>160982.69727</v>
+        <v>162708.72812</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>142841.74308</v>
+        <v>136071.36347</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>121104.17622</v>
+        <v>115769.70393</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>207913.24074</v>
+        <v>231257.27188</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>220386.7932</v>
+        <v>233245.97765</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>247741.31079</v>
+        <v>261352.61481</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>199826.55907</v>
+        <v>201818.4304</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>240628.90208</v>
+        <v>255668.16228</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>832172.94108</v>
+        <v>829342.5629500001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>739464.8368399999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>729831.99338</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>956702.999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>69171.69242000001</v>
+        <v>74916.61418999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>104415.23587</v>
+        <v>112340.2015</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>74186.35502000002</v>
+        <v>93081.11609000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>96845.00743</v>
+        <v>116711.8332</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>130615.2623</v>
+        <v>131256.92558</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>172149.66046</v>
+        <v>170615.56189</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>214032.74073</v>
+        <v>207193.60446</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>178180.66062</v>
+        <v>183859.53656</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>335776.00702</v>
+        <v>313983.49925</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>626657.8569000001</v>
+        <v>618309.91296</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>508806.33482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>544506.15039</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>825313.1949999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>59593.94139</v>
+        <v>60420.71253</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>92994.76216</v>
+        <v>95707.48539</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>72835.93657999999</v>
+        <v>88634.45075999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>86659.50972</v>
+        <v>106504.89775</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>110027.17754</v>
+        <v>113792.70991</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>167696.05057</v>
+        <v>151240.81767</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>190576.33016</v>
+        <v>191685.68842</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>174169.22558</v>
+        <v>176043.64957</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>301618.8203</v>
+        <v>299816.06898</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>477720.89124</v>
+        <v>481691.44025</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>439047.16516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>451575.1306499999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>706661.638</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1604,169 +1590,194 @@
         <v>12914.94567</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>13657.27388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13838.19129</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>20842.562</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>27989.26183</v>
+        <v>29413.1836</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>50602.14072</v>
+        <v>51742.45647999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>32033.31132</v>
+        <v>40618.90102</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>28348.06699</v>
+        <v>38072.98285</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>47988.17133999999</v>
+        <v>51141.81256</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>66734.00086</v>
+        <v>68607.80119</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>74621.94624999999</v>
+        <v>76471.20057</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>66271.33352</v>
+        <v>68312.85958</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>153070.9101</v>
+        <v>152756.91795</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>248710.69812</v>
+        <v>250186.11322</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>158704.93464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>156910.8931</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>209204.201</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>31604.67956</v>
+        <v>31007.52893</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>42392.62144</v>
+        <v>43965.02890999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>40802.42526</v>
+        <v>48015.34974</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>38906.136</v>
+        <v>49026.60817</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>61389.48729999999</v>
+        <v>62001.37845</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>100034.84307</v>
+        <v>81705.80984</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>113149.1817</v>
+        <v>112409.28564</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>86584.90415999999</v>
+        <v>86417.80209</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>120635.9503</v>
+        <v>119147.19113</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>216095.24745</v>
+        <v>218590.38136</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>266684.95664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>280826.04626</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>476614.875</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>9577.751030000001</v>
+        <v>14495.90166</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>11420.47371</v>
+        <v>16632.71611</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1350.41844</v>
+        <v>4446.66533</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>10185.49771</v>
+        <v>10206.93545</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>20588.08476</v>
+        <v>17464.21567</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4453.609890000001</v>
+        <v>19374.74422</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>23456.41057</v>
+        <v>15507.91604</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4011.435040000001</v>
+        <v>7815.88699</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>34157.18672</v>
+        <v>14167.43027</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>148936.96566</v>
+        <v>136618.47271</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>69759.16966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>92931.01974</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>118651.557</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2446.5427</v>
+        <v>2354.08859</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4709.606070000001</v>
+        <v>4344.96483</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4401.5357</v>
+        <v>5073.31787</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5003.62526</v>
+        <v>5292.125099999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>11448.85296</v>
+        <v>10891.30461</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>13392.62202</v>
+        <v>10103.82755</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>16794.02948</v>
+        <v>13870.92016</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>16444.95421</v>
+        <v>12166.9535</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>28374.14801</v>
+        <v>23661.44387</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>166118.93888</v>
+        <v>154127.038</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>120712.82956</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>105183.5555</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>277492.254</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1835,55 +1851,65 @@
         <v>2.63175</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>10604.93153</v>
+        <v>28.01337</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>8834.860490000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1033.59786</v>
+        <v>1063.73479</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3128.14712</v>
+        <v>2711.03393</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1120.97625</v>
+        <v>1968.94999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2066.06237</v>
+        <v>2774.93132</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2780.4371</v>
+        <v>2711.98909</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4126.43309</v>
+        <v>2832.79677</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6245.18724</v>
+        <v>4500.91555</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8144.893119999999</v>
+        <v>5594.142720000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13202.35616</v>
+        <v>8795.557629999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>22135.53801</v>
+        <v>16568.63274</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>26623.70622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>21352.89757</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>17566.452</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,29 +1944,34 @@
       <c r="M29" s="48" t="n">
         <v>273.06671</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>41.895</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>185.14941</v>
+        <v>38.51041</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>100.56912</v>
+        <v>86.50677999999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>124.58201</v>
+        <v>115.68201</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>68.08338000000001</v>
+        <v>53.90524</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>574.9177199999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>310.28215</v>
+        <v>271.96014</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>271.8965</v>
@@ -1949,46 +1980,51 @@
         <v>307.64381</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>420.9529</v>
+        <v>413.57184</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>1998.00507</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4673.19701</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4644.34732</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1690.712</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>41.01274</v>
+        <v>40.57507</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>23.79406</v>
+        <v>20.96104</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>112.54729</v>
+        <v>112.50365</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>252.40789</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>280.0522800000001</v>
+        <v>280.06995</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1795.01648</v>
+        <v>1795.05966</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>189.338</v>
+        <v>190.01566</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>116.58428</v>
+        <v>116.50156</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>51.4022</v>
+        <v>49.56762000000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>704.48543</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>1349.21761</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>53982.993</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>980.949</v>
+        <v>1024.74831</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1167.36789</v>
+        <v>1236.7352</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1978.15548</v>
+        <v>1843.86031</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1715.56805</v>
+        <v>1316.64675</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4024.44846</v>
+        <v>3607.86069</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5609.87104</v>
+        <v>4422.64953</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8697.614370000001</v>
+        <v>8083.89217</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6422.91216</v>
+        <v>4986.34894</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>13559.54595</v>
+        <v>13521.37584</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>122989.64299</v>
+        <v>127198.81617</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>71625.76863999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>70246.64</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>183130.191</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>205.83369</v>
+        <v>186.52001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>289.72788</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1065.27467</v>
+        <v>1032.32191</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>901.50357</v>
+        <v>894.2338999999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2665.37623</v>
+        <v>2592.84599</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1425.47935</v>
+        <v>655.82154</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1299.90485</v>
+        <v>734.11176</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>976.93349</v>
+        <v>686.32912</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>919.39615</v>
+        <v>660.87629</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>7252.31083</v>
+        <v>7195.0602</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7333.01288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>7317.38629</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>21080.011</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1823.96468</v>
+        <v>1935.09715</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4153.247069999999</v>
+        <v>3991.86772</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2816.35989</v>
+        <v>2316.37313</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3006.36765</v>
+        <v>2635.55156</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8071.44898</v>
+        <v>7057.42259</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>13852.73471</v>
+        <v>10368.67997</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>18162.15259</v>
+        <v>16331.7333</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>18748.68878</v>
+        <v>17179.09472</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>18812.79338</v>
+        <v>16598.62531</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>181979.72463</v>
+        <v>183634.67275</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>95721.98862</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>79135.02647999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>220669.726</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>39.13332</v>
@@ -2216,10 +2282,10 @@
         <v>498.63344</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>547.3956899999999</v>
+        <v>146.15509</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>698.06686</v>
+        <v>687.40922</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>737.6126400000001</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>1540.9968</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>4619.169</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>615.86414</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>902.31226</v>
+        <v>872.3361599999999</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>229.0818</v>
@@ -2249,31 +2320,36 @@
         <v>373.27877</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1087.86854</v>
+        <v>1139.80519</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4436.592030000001</v>
+        <v>3949.96203</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1947.19635</v>
+        <v>2163.97591</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>605.157</v>
+        <v>1022.982</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>951.2868000000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>21098.87571</v>
+        <v>21063.50602</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>6316.8892</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>2357.035</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2282,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>609.8802800000001</v>
+        <v>260.91214</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>0</v>
@@ -2300,7 +2376,7 @@
         <v>67.84321000000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>12.03521</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>2237.51704</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>51.59896</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7130.586</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>979.85574</v>
+        <v>1156.76432</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2983.07789</v>
+        <v>2877.13592</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1204.11011</v>
+        <v>969.0978100000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2060.52864</v>
+        <v>1584.73892</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5596.926570000001</v>
+        <v>4530.963529999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6618.09811</v>
+        <v>5062.220480000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12875.38411</v>
+        <v>11429.67217</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13994.66414</v>
+        <v>12176.08843</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>15631.84061</v>
+        <v>13445.65278</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>142789.09485</v>
+        <v>145437.0968</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>78554.8146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>61971.67233</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>196069.939</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2369,7 +2455,7 @@
         <v>48.11837000000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1441.54711</v>
+        <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,23 +2516,28 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>189.11148</v>
+        <v>123.33537</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>245.9147</v>
+        <v>220.45342</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>718.9690899999999</v>
+        <v>802.96277</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>265.67158</v>
+        <v>370.64521</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>932.6337600000001</v>
@@ -2450,103 +2546,118 @@
         <v>851.15625</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2792.17644</v>
+        <v>2591.93013</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3382.95757</v>
+        <v>3224.77186</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1480.01812</v>
+        <v>1464.07309</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>14760.62708</v>
+        <v>13802.94294</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9257.689060000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9253.869189999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>10492.997</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4783.872240000001</v>
+        <v>5483.94023</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6011.370790000001</v>
+        <v>6020.90077</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>6896.28362</v>
+        <v>6130.49935</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>8951.9535</v>
+        <v>8902.00468</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>17009.09217</v>
+        <v>18862.07197</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>18983.4745</v>
+        <v>18894.4979</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>27782.39931</v>
+        <v>29080.95618</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7912.55278</v>
+        <v>7057.7655</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>41802.85098</v>
+        <v>44610.89631</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>25319.33136</v>
+        <v>26127.29302</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>41695.7817</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>43718.45432</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>32108.906</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4783.872240000001</v>
+        <v>5483.94023</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6011.370790000001</v>
+        <v>6020.90077</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6896.28362</v>
+        <v>6130.49935</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>8951.9535</v>
+        <v>8902.00468</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>17009.09217</v>
+        <v>18862.07197</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>18983.4745</v>
+        <v>18894.4979</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>27782.39931</v>
+        <v>29080.95618</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7912.55278</v>
+        <v>7057.7655</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>41802.85098</v>
+        <v>44610.89631</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>25319.33136</v>
+        <v>26127.29302</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>40628.02535</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>42650.69797</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>32082.134</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,206 +2692,236 @@
       <c r="M46" s="48" t="n">
         <v>1067.75635</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>26.772</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5416.456810000001</v>
+        <v>9430.952870000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5965.46192</v>
+        <v>10964.91245</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-3960.68937</v>
+        <v>1073.11072</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3230.80182</v>
+        <v>3961.50431</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6956.39657</v>
+        <v>2436.02572</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-14989.9773</v>
+        <v>215.3938999999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-5694.111850000001</v>
+        <v>-16033.85328</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-6204.85231</v>
+        <v>-4254.019730000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1915.690370000001</v>
+        <v>-23380.64748</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>107756.84855</v>
+        <v>80983.54493999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>53054.22890000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>75261.09444</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>143365.179</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>369.41887</v>
+        <v>1624.33005</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3654.67871</v>
+        <v>2311.94276</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4174.12692</v>
+        <v>2411.05686</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4864.31746</v>
+        <v>2294.07425</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2849.92614</v>
+        <v>2650.99764</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8460.3179</v>
+        <v>5307.313990000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4490.595060000001</v>
+        <v>3992.44133</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3451.22607</v>
+        <v>2013.67299</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5245.317109999999</v>
+        <v>3986.80357</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>26833.22613</v>
+        <v>26945.21783</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>13332.30045</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>14379.43431</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>27363.909</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1269.3955</v>
+        <v>4</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1412.87647</v>
+        <v>0.25643</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1099.35554</v>
+        <v>0</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>24.79518</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>757.6935</v>
+        <v>56.5664</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1078.69785</v>
+        <v>75.45125</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1267.05672</v>
+        <v>14.14072</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1433.67394</v>
+        <v>38.94926</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1119.79128</v>
+        <v>680.98607</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>3770.63409</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>267.822</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>369.34887</v>
+        <v>1624.26005</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2385.28321</v>
+        <v>2307.94276</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2761.25045</v>
+        <v>2410.80043</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3764.96192</v>
+        <v>2294.07425</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2825.13096</v>
+        <v>2626.20246</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7702.624400000001</v>
+        <v>5250.74759</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3411.89721</v>
+        <v>3916.99008</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2184.16935</v>
+        <v>1999.53227</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3811.64317</v>
+        <v>3947.85431</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>25713.43485</v>
+        <v>26264.23176</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9561.666359999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>10608.80022</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>27096.087</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>828.53122</v>
+        <v>752.0511299999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3233.85429</v>
+        <v>3240.315610000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>17659.45326</v>
+        <v>17355.34563</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3062.74647</v>
+        <v>3031.43365</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3856.33274</v>
+        <v>4092.53584</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4870.34818</v>
+        <v>5069.82976</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5849.784070000001</v>
+        <v>6005.10457</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>9582.86643</v>
+        <v>11005.59908</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3322.005</v>
+        <v>3343.51249</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>21677.25475</v>
+        <v>19421.413</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>7950.57606</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>7568.586020000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>32909.212</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>783.44777</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>505.3</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>106.36606</v>
+        <v>35.65526000000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>193.17553</v>
@@ -2831,19 +2977,19 @@
         <v>1560.39039</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>34.54728</v>
+        <v>31.63086</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>33.45650999999999</v>
+        <v>24.11071</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>171.50995</v>
+        <v>171.47195</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>444.7765</v>
+        <v>435.44078</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>75.61108999999999</v>
+        <v>70.97948</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>265.24771</v>
@@ -2852,166 +2998,189 @@
         <v>567.95767</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>221.90341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>209.75015</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8853.367</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>722.16516</v>
+        <v>716.3958700000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3040.67876</v>
+        <v>3047.14008</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>16099.06287</v>
+        <v>15794.95524</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3028.19919</v>
+        <v>2999.80279</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3822.876229999999</v>
+        <v>4068.42513</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4698.83823</v>
+        <v>4898.35781</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5405.007570000001</v>
+        <v>5569.66379</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>9507.25534</v>
+        <v>10934.6196</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3056.75729</v>
+        <v>3078.26478</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>19518.50958</v>
+        <v>17262.66783</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6945.22488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6575.388099999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>23550.545</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4957.34446</v>
+        <v>10303.23179</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6386.28634</v>
+        <v>10036.5396</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-17446.01571</v>
+        <v>-13871.17805</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>5032.372810000001</v>
+        <v>3224.14491</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5949.98997</v>
+        <v>994.4875200000002</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-11400.00758</v>
+        <v>452.8781299999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-7053.300860000001</v>
+        <v>-18046.51652</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-12336.49267</v>
+        <v>-13245.94582</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3839.002480000001</v>
+        <v>-22737.3564</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>112912.81993</v>
+        <v>88507.34977</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>58435.95329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>82071.94273000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>137819.876</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1453.52538</v>
+        <v>1823.93105</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3872.00544</v>
+        <v>3609.48125</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2738.12867</v>
+        <v>2439.64664</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3176.79172</v>
+        <v>2825.45762</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3106.46722</v>
+        <v>2987.8735</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5135.98732</v>
+        <v>4214.227269999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5844.30392</v>
+        <v>5159.97676</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>7215.36568</v>
+        <v>5915.546780000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>12211.16386</v>
+        <v>8303.650600000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>34950.02077</v>
+        <v>33096.74967</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>28610.05621</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>26281.83514</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>58611.231</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3503.81908</v>
+        <v>8479.300740000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2514.2809</v>
+        <v>6427.05835</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-20184.14438</v>
+        <v>-16310.82469</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1855.58109</v>
+        <v>398.68729</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2843.52275</v>
+        <v>-1993.38598</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-16535.9949</v>
+        <v>-3761.34914</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-12897.60478</v>
+        <v>-23206.49328</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-19551.85835</v>
+        <v>-19161.4926</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-8372.161380000003</v>
+        <v>-31041.007</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>77962.79916</v>
+        <v>55410.6001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>29825.89708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>55790.10759000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>79208.645</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>29</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>30</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>25</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>36</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="G59" s="35" t="n">
+      <c r="J59" s="35" t="n">
+        <v>31</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>28</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>41</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>36</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>32</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>45</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>45</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>44</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>44</v>
-      </c>
-      <c r="M59" s="35" t="n">
+      <c r="N59" s="35" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>